--- a/medicine/Handicap/Jean-François_Chossy/Jean-François_Chossy.xlsx
+++ b/medicine/Handicap/Jean-François_Chossy/Jean-François_Chossy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Chossy</t>
+          <t>Jean-François_Chossy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean-François Chossy, né le 4 mai 1947 à Montbrison (Loire), est un homme politique français.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Chossy</t>
+          <t>Jean-François_Chossy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-François Chossy a axé son activité parlementaire autour de la question du handicap. Il est notamment l'auteur de la loi sur le handicap du 11 février 2005 et a été le président du groupe d'études parlementaire « Intégration des personnes fragilisées et handicapées »[1]  de Assemblée nationale.
-Il est à l'initiative de la « loi Chossy », promulguée le 11 décembre 1996 pour garantir un accompagnement pluridisciplinaire aux personnes autistes, et faire reconnaître l'autisme en tant que handicap[2], en modifiant la loi de 1975[3]. Adoptée à l'unanimité, il s'agit de la première loi en faveur des droits des personnes autistes en France[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-François Chossy a axé son activité parlementaire autour de la question du handicap. Il est notamment l'auteur de la loi sur le handicap du 11 février 2005 et a été le président du groupe d'études parlementaire « Intégration des personnes fragilisées et handicapées »  de Assemblée nationale.
+Il est à l'initiative de la « loi Chossy », promulguée le 11 décembre 1996 pour garantir un accompagnement pluridisciplinaire aux personnes autistes, et faire reconnaître l'autisme en tant que handicap, en modifiant la loi de 1975. Adoptée à l'unanimité, il s'agit de la première loi en faveur des droits des personnes autistes en France.
 Il a été réélu, au premier tour, député le 10 juin 2007, pour la XIIIe législature (2007-2012), dans la 7e circonscription de la Loire. Il fait partie du groupe UMP et est membre du Parti chrétien-démocrate.
-Il était membre du groupe d'études sur le problème du Tibet de l'Assemblée nationale[5].
-Le 5 mai 2011, l'Assemblée annonce la cessation de son mandat, le député ayant accepté une mission auprès du Premier ministre de plus de 6 mois[6]. Son siège est donc attribué à son suppléant : Paul Salen.
+Il était membre du groupe d'études sur le problème du Tibet de l'Assemblée nationale.
+Le 5 mai 2011, l'Assemblée annonce la cessation de son mandat, le député ayant accepté une mission auprès du Premier ministre de plus de 6 mois. Son siège est donc attribué à son suppléant : Paul Salen.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Chossy</t>
+          <t>Jean-François_Chossy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Détail des fonctions et des mandats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mandats locaux
 19 mars 1989 - 18 juin 1995 : Maire de Saint-Just-Saint-Rambert
